--- a/Documents/Cord/Cord Documents/SLP001 ,SLP002 Doffing Report Slip.xlsx
+++ b/Documents/Cord/Cord Documents/SLP001 ,SLP002 Doffing Report Slip.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/Budget Traeback Cord 2022/DCC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D85438D4-CA69-4475-8E11-7065645CBD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0A01492-32EB-4026-8FB7-F1DF561FB92F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="FM-TW-04-01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -101,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -476,27 +470,6 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,12 +499,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,7 +560,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC903EF5-360E-4AE7-9F81-A037624BFAA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC903EF5-360E-4AE7-9F81-A037624BFAA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -601,14 +595,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -640,7 +634,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA32EF90-45CF-483E-8EDC-E50205529F6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA32EF90-45CF-483E-8EDC-E50205529F6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -652,7 +646,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -675,14 +669,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -714,7 +708,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98406ED-A6D0-4EC0-BD0B-D9DF79CE3B4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E98406ED-A6D0-4EC0-BD0B-D9DF79CE3B4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -847,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1041,546 +1035,546 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B9CC41-A951-424E-8F83-24602A72AACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="9" width="9.8984375" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.09765625" style="1"/>
-    <col min="257" max="265" width="9.8984375" style="1" customWidth="1"/>
-    <col min="266" max="512" width="9.09765625" style="1"/>
-    <col min="513" max="521" width="9.8984375" style="1" customWidth="1"/>
-    <col min="522" max="768" width="9.09765625" style="1"/>
-    <col min="769" max="777" width="9.8984375" style="1" customWidth="1"/>
-    <col min="778" max="1024" width="9.09765625" style="1"/>
-    <col min="1025" max="1033" width="9.8984375" style="1" customWidth="1"/>
-    <col min="1034" max="1280" width="9.09765625" style="1"/>
-    <col min="1281" max="1289" width="9.8984375" style="1" customWidth="1"/>
-    <col min="1290" max="1536" width="9.09765625" style="1"/>
-    <col min="1537" max="1545" width="9.8984375" style="1" customWidth="1"/>
-    <col min="1546" max="1792" width="9.09765625" style="1"/>
-    <col min="1793" max="1801" width="9.8984375" style="1" customWidth="1"/>
-    <col min="1802" max="2048" width="9.09765625" style="1"/>
-    <col min="2049" max="2057" width="9.8984375" style="1" customWidth="1"/>
-    <col min="2058" max="2304" width="9.09765625" style="1"/>
-    <col min="2305" max="2313" width="9.8984375" style="1" customWidth="1"/>
-    <col min="2314" max="2560" width="9.09765625" style="1"/>
-    <col min="2561" max="2569" width="9.8984375" style="1" customWidth="1"/>
-    <col min="2570" max="2816" width="9.09765625" style="1"/>
-    <col min="2817" max="2825" width="9.8984375" style="1" customWidth="1"/>
-    <col min="2826" max="3072" width="9.09765625" style="1"/>
-    <col min="3073" max="3081" width="9.8984375" style="1" customWidth="1"/>
-    <col min="3082" max="3328" width="9.09765625" style="1"/>
-    <col min="3329" max="3337" width="9.8984375" style="1" customWidth="1"/>
-    <col min="3338" max="3584" width="9.09765625" style="1"/>
-    <col min="3585" max="3593" width="9.8984375" style="1" customWidth="1"/>
-    <col min="3594" max="3840" width="9.09765625" style="1"/>
-    <col min="3841" max="3849" width="9.8984375" style="1" customWidth="1"/>
-    <col min="3850" max="4096" width="9.09765625" style="1"/>
-    <col min="4097" max="4105" width="9.8984375" style="1" customWidth="1"/>
-    <col min="4106" max="4352" width="9.09765625" style="1"/>
-    <col min="4353" max="4361" width="9.8984375" style="1" customWidth="1"/>
-    <col min="4362" max="4608" width="9.09765625" style="1"/>
-    <col min="4609" max="4617" width="9.8984375" style="1" customWidth="1"/>
-    <col min="4618" max="4864" width="9.09765625" style="1"/>
-    <col min="4865" max="4873" width="9.8984375" style="1" customWidth="1"/>
-    <col min="4874" max="5120" width="9.09765625" style="1"/>
-    <col min="5121" max="5129" width="9.8984375" style="1" customWidth="1"/>
-    <col min="5130" max="5376" width="9.09765625" style="1"/>
-    <col min="5377" max="5385" width="9.8984375" style="1" customWidth="1"/>
-    <col min="5386" max="5632" width="9.09765625" style="1"/>
-    <col min="5633" max="5641" width="9.8984375" style="1" customWidth="1"/>
-    <col min="5642" max="5888" width="9.09765625" style="1"/>
-    <col min="5889" max="5897" width="9.8984375" style="1" customWidth="1"/>
-    <col min="5898" max="6144" width="9.09765625" style="1"/>
-    <col min="6145" max="6153" width="9.8984375" style="1" customWidth="1"/>
-    <col min="6154" max="6400" width="9.09765625" style="1"/>
-    <col min="6401" max="6409" width="9.8984375" style="1" customWidth="1"/>
-    <col min="6410" max="6656" width="9.09765625" style="1"/>
-    <col min="6657" max="6665" width="9.8984375" style="1" customWidth="1"/>
-    <col min="6666" max="6912" width="9.09765625" style="1"/>
-    <col min="6913" max="6921" width="9.8984375" style="1" customWidth="1"/>
-    <col min="6922" max="7168" width="9.09765625" style="1"/>
-    <col min="7169" max="7177" width="9.8984375" style="1" customWidth="1"/>
-    <col min="7178" max="7424" width="9.09765625" style="1"/>
-    <col min="7425" max="7433" width="9.8984375" style="1" customWidth="1"/>
-    <col min="7434" max="7680" width="9.09765625" style="1"/>
-    <col min="7681" max="7689" width="9.8984375" style="1" customWidth="1"/>
-    <col min="7690" max="7936" width="9.09765625" style="1"/>
-    <col min="7937" max="7945" width="9.8984375" style="1" customWidth="1"/>
-    <col min="7946" max="8192" width="9.09765625" style="1"/>
-    <col min="8193" max="8201" width="9.8984375" style="1" customWidth="1"/>
-    <col min="8202" max="8448" width="9.09765625" style="1"/>
-    <col min="8449" max="8457" width="9.8984375" style="1" customWidth="1"/>
-    <col min="8458" max="8704" width="9.09765625" style="1"/>
-    <col min="8705" max="8713" width="9.8984375" style="1" customWidth="1"/>
-    <col min="8714" max="8960" width="9.09765625" style="1"/>
-    <col min="8961" max="8969" width="9.8984375" style="1" customWidth="1"/>
-    <col min="8970" max="9216" width="9.09765625" style="1"/>
-    <col min="9217" max="9225" width="9.8984375" style="1" customWidth="1"/>
-    <col min="9226" max="9472" width="9.09765625" style="1"/>
-    <col min="9473" max="9481" width="9.8984375" style="1" customWidth="1"/>
-    <col min="9482" max="9728" width="9.09765625" style="1"/>
-    <col min="9729" max="9737" width="9.8984375" style="1" customWidth="1"/>
-    <col min="9738" max="9984" width="9.09765625" style="1"/>
-    <col min="9985" max="9993" width="9.8984375" style="1" customWidth="1"/>
-    <col min="9994" max="10240" width="9.09765625" style="1"/>
-    <col min="10241" max="10249" width="9.8984375" style="1" customWidth="1"/>
-    <col min="10250" max="10496" width="9.09765625" style="1"/>
-    <col min="10497" max="10505" width="9.8984375" style="1" customWidth="1"/>
-    <col min="10506" max="10752" width="9.09765625" style="1"/>
-    <col min="10753" max="10761" width="9.8984375" style="1" customWidth="1"/>
-    <col min="10762" max="11008" width="9.09765625" style="1"/>
-    <col min="11009" max="11017" width="9.8984375" style="1" customWidth="1"/>
-    <col min="11018" max="11264" width="9.09765625" style="1"/>
-    <col min="11265" max="11273" width="9.8984375" style="1" customWidth="1"/>
-    <col min="11274" max="11520" width="9.09765625" style="1"/>
-    <col min="11521" max="11529" width="9.8984375" style="1" customWidth="1"/>
-    <col min="11530" max="11776" width="9.09765625" style="1"/>
-    <col min="11777" max="11785" width="9.8984375" style="1" customWidth="1"/>
-    <col min="11786" max="12032" width="9.09765625" style="1"/>
-    <col min="12033" max="12041" width="9.8984375" style="1" customWidth="1"/>
-    <col min="12042" max="12288" width="9.09765625" style="1"/>
-    <col min="12289" max="12297" width="9.8984375" style="1" customWidth="1"/>
-    <col min="12298" max="12544" width="9.09765625" style="1"/>
-    <col min="12545" max="12553" width="9.8984375" style="1" customWidth="1"/>
-    <col min="12554" max="12800" width="9.09765625" style="1"/>
-    <col min="12801" max="12809" width="9.8984375" style="1" customWidth="1"/>
-    <col min="12810" max="13056" width="9.09765625" style="1"/>
-    <col min="13057" max="13065" width="9.8984375" style="1" customWidth="1"/>
-    <col min="13066" max="13312" width="9.09765625" style="1"/>
-    <col min="13313" max="13321" width="9.8984375" style="1" customWidth="1"/>
-    <col min="13322" max="13568" width="9.09765625" style="1"/>
-    <col min="13569" max="13577" width="9.8984375" style="1" customWidth="1"/>
-    <col min="13578" max="13824" width="9.09765625" style="1"/>
-    <col min="13825" max="13833" width="9.8984375" style="1" customWidth="1"/>
-    <col min="13834" max="14080" width="9.09765625" style="1"/>
-    <col min="14081" max="14089" width="9.8984375" style="1" customWidth="1"/>
-    <col min="14090" max="14336" width="9.09765625" style="1"/>
-    <col min="14337" max="14345" width="9.8984375" style="1" customWidth="1"/>
-    <col min="14346" max="14592" width="9.09765625" style="1"/>
-    <col min="14593" max="14601" width="9.8984375" style="1" customWidth="1"/>
-    <col min="14602" max="14848" width="9.09765625" style="1"/>
-    <col min="14849" max="14857" width="9.8984375" style="1" customWidth="1"/>
-    <col min="14858" max="15104" width="9.09765625" style="1"/>
-    <col min="15105" max="15113" width="9.8984375" style="1" customWidth="1"/>
-    <col min="15114" max="15360" width="9.09765625" style="1"/>
-    <col min="15361" max="15369" width="9.8984375" style="1" customWidth="1"/>
-    <col min="15370" max="15616" width="9.09765625" style="1"/>
-    <col min="15617" max="15625" width="9.8984375" style="1" customWidth="1"/>
-    <col min="15626" max="15872" width="9.09765625" style="1"/>
-    <col min="15873" max="15881" width="9.8984375" style="1" customWidth="1"/>
-    <col min="15882" max="16128" width="9.09765625" style="1"/>
-    <col min="16129" max="16137" width="9.8984375" style="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="256" width="9.125" style="1"/>
+    <col min="257" max="265" width="9.875" style="1" customWidth="1"/>
+    <col min="266" max="512" width="9.125" style="1"/>
+    <col min="513" max="521" width="9.875" style="1" customWidth="1"/>
+    <col min="522" max="768" width="9.125" style="1"/>
+    <col min="769" max="777" width="9.875" style="1" customWidth="1"/>
+    <col min="778" max="1024" width="9.125" style="1"/>
+    <col min="1025" max="1033" width="9.875" style="1" customWidth="1"/>
+    <col min="1034" max="1280" width="9.125" style="1"/>
+    <col min="1281" max="1289" width="9.875" style="1" customWidth="1"/>
+    <col min="1290" max="1536" width="9.125" style="1"/>
+    <col min="1537" max="1545" width="9.875" style="1" customWidth="1"/>
+    <col min="1546" max="1792" width="9.125" style="1"/>
+    <col min="1793" max="1801" width="9.875" style="1" customWidth="1"/>
+    <col min="1802" max="2048" width="9.125" style="1"/>
+    <col min="2049" max="2057" width="9.875" style="1" customWidth="1"/>
+    <col min="2058" max="2304" width="9.125" style="1"/>
+    <col min="2305" max="2313" width="9.875" style="1" customWidth="1"/>
+    <col min="2314" max="2560" width="9.125" style="1"/>
+    <col min="2561" max="2569" width="9.875" style="1" customWidth="1"/>
+    <col min="2570" max="2816" width="9.125" style="1"/>
+    <col min="2817" max="2825" width="9.875" style="1" customWidth="1"/>
+    <col min="2826" max="3072" width="9.125" style="1"/>
+    <col min="3073" max="3081" width="9.875" style="1" customWidth="1"/>
+    <col min="3082" max="3328" width="9.125" style="1"/>
+    <col min="3329" max="3337" width="9.875" style="1" customWidth="1"/>
+    <col min="3338" max="3584" width="9.125" style="1"/>
+    <col min="3585" max="3593" width="9.875" style="1" customWidth="1"/>
+    <col min="3594" max="3840" width="9.125" style="1"/>
+    <col min="3841" max="3849" width="9.875" style="1" customWidth="1"/>
+    <col min="3850" max="4096" width="9.125" style="1"/>
+    <col min="4097" max="4105" width="9.875" style="1" customWidth="1"/>
+    <col min="4106" max="4352" width="9.125" style="1"/>
+    <col min="4353" max="4361" width="9.875" style="1" customWidth="1"/>
+    <col min="4362" max="4608" width="9.125" style="1"/>
+    <col min="4609" max="4617" width="9.875" style="1" customWidth="1"/>
+    <col min="4618" max="4864" width="9.125" style="1"/>
+    <col min="4865" max="4873" width="9.875" style="1" customWidth="1"/>
+    <col min="4874" max="5120" width="9.125" style="1"/>
+    <col min="5121" max="5129" width="9.875" style="1" customWidth="1"/>
+    <col min="5130" max="5376" width="9.125" style="1"/>
+    <col min="5377" max="5385" width="9.875" style="1" customWidth="1"/>
+    <col min="5386" max="5632" width="9.125" style="1"/>
+    <col min="5633" max="5641" width="9.875" style="1" customWidth="1"/>
+    <col min="5642" max="5888" width="9.125" style="1"/>
+    <col min="5889" max="5897" width="9.875" style="1" customWidth="1"/>
+    <col min="5898" max="6144" width="9.125" style="1"/>
+    <col min="6145" max="6153" width="9.875" style="1" customWidth="1"/>
+    <col min="6154" max="6400" width="9.125" style="1"/>
+    <col min="6401" max="6409" width="9.875" style="1" customWidth="1"/>
+    <col min="6410" max="6656" width="9.125" style="1"/>
+    <col min="6657" max="6665" width="9.875" style="1" customWidth="1"/>
+    <col min="6666" max="6912" width="9.125" style="1"/>
+    <col min="6913" max="6921" width="9.875" style="1" customWidth="1"/>
+    <col min="6922" max="7168" width="9.125" style="1"/>
+    <col min="7169" max="7177" width="9.875" style="1" customWidth="1"/>
+    <col min="7178" max="7424" width="9.125" style="1"/>
+    <col min="7425" max="7433" width="9.875" style="1" customWidth="1"/>
+    <col min="7434" max="7680" width="9.125" style="1"/>
+    <col min="7681" max="7689" width="9.875" style="1" customWidth="1"/>
+    <col min="7690" max="7936" width="9.125" style="1"/>
+    <col min="7937" max="7945" width="9.875" style="1" customWidth="1"/>
+    <col min="7946" max="8192" width="9.125" style="1"/>
+    <col min="8193" max="8201" width="9.875" style="1" customWidth="1"/>
+    <col min="8202" max="8448" width="9.125" style="1"/>
+    <col min="8449" max="8457" width="9.875" style="1" customWidth="1"/>
+    <col min="8458" max="8704" width="9.125" style="1"/>
+    <col min="8705" max="8713" width="9.875" style="1" customWidth="1"/>
+    <col min="8714" max="8960" width="9.125" style="1"/>
+    <col min="8961" max="8969" width="9.875" style="1" customWidth="1"/>
+    <col min="8970" max="9216" width="9.125" style="1"/>
+    <col min="9217" max="9225" width="9.875" style="1" customWidth="1"/>
+    <col min="9226" max="9472" width="9.125" style="1"/>
+    <col min="9473" max="9481" width="9.875" style="1" customWidth="1"/>
+    <col min="9482" max="9728" width="9.125" style="1"/>
+    <col min="9729" max="9737" width="9.875" style="1" customWidth="1"/>
+    <col min="9738" max="9984" width="9.125" style="1"/>
+    <col min="9985" max="9993" width="9.875" style="1" customWidth="1"/>
+    <col min="9994" max="10240" width="9.125" style="1"/>
+    <col min="10241" max="10249" width="9.875" style="1" customWidth="1"/>
+    <col min="10250" max="10496" width="9.125" style="1"/>
+    <col min="10497" max="10505" width="9.875" style="1" customWidth="1"/>
+    <col min="10506" max="10752" width="9.125" style="1"/>
+    <col min="10753" max="10761" width="9.875" style="1" customWidth="1"/>
+    <col min="10762" max="11008" width="9.125" style="1"/>
+    <col min="11009" max="11017" width="9.875" style="1" customWidth="1"/>
+    <col min="11018" max="11264" width="9.125" style="1"/>
+    <col min="11265" max="11273" width="9.875" style="1" customWidth="1"/>
+    <col min="11274" max="11520" width="9.125" style="1"/>
+    <col min="11521" max="11529" width="9.875" style="1" customWidth="1"/>
+    <col min="11530" max="11776" width="9.125" style="1"/>
+    <col min="11777" max="11785" width="9.875" style="1" customWidth="1"/>
+    <col min="11786" max="12032" width="9.125" style="1"/>
+    <col min="12033" max="12041" width="9.875" style="1" customWidth="1"/>
+    <col min="12042" max="12288" width="9.125" style="1"/>
+    <col min="12289" max="12297" width="9.875" style="1" customWidth="1"/>
+    <col min="12298" max="12544" width="9.125" style="1"/>
+    <col min="12545" max="12553" width="9.875" style="1" customWidth="1"/>
+    <col min="12554" max="12800" width="9.125" style="1"/>
+    <col min="12801" max="12809" width="9.875" style="1" customWidth="1"/>
+    <col min="12810" max="13056" width="9.125" style="1"/>
+    <col min="13057" max="13065" width="9.875" style="1" customWidth="1"/>
+    <col min="13066" max="13312" width="9.125" style="1"/>
+    <col min="13313" max="13321" width="9.875" style="1" customWidth="1"/>
+    <col min="13322" max="13568" width="9.125" style="1"/>
+    <col min="13569" max="13577" width="9.875" style="1" customWidth="1"/>
+    <col min="13578" max="13824" width="9.125" style="1"/>
+    <col min="13825" max="13833" width="9.875" style="1" customWidth="1"/>
+    <col min="13834" max="14080" width="9.125" style="1"/>
+    <col min="14081" max="14089" width="9.875" style="1" customWidth="1"/>
+    <col min="14090" max="14336" width="9.125" style="1"/>
+    <col min="14337" max="14345" width="9.875" style="1" customWidth="1"/>
+    <col min="14346" max="14592" width="9.125" style="1"/>
+    <col min="14593" max="14601" width="9.875" style="1" customWidth="1"/>
+    <col min="14602" max="14848" width="9.125" style="1"/>
+    <col min="14849" max="14857" width="9.875" style="1" customWidth="1"/>
+    <col min="14858" max="15104" width="9.125" style="1"/>
+    <col min="15105" max="15113" width="9.875" style="1" customWidth="1"/>
+    <col min="15114" max="15360" width="9.125" style="1"/>
+    <col min="15361" max="15369" width="9.875" style="1" customWidth="1"/>
+    <col min="15370" max="15616" width="9.125" style="1"/>
+    <col min="15617" max="15625" width="9.875" style="1" customWidth="1"/>
+    <col min="15626" max="15872" width="9.125" style="1"/>
+    <col min="15873" max="15881" width="9.875" style="1" customWidth="1"/>
+    <col min="15882" max="16128" width="9.125" style="1"/>
+    <col min="16129" max="16137" width="9.875" style="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="H1" s="2" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1">
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="14" t="s">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="18" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="18" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="18" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="26" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="33" t="s">
+      <c r="C15" s="24"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="37" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="H19" s="2" t="s">
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.25" customHeight="1" thickBot="1">
+      <c r="H19" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="3" t="s">
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A20" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="10" t="s">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="14" t="s">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="18" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="18" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="18" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="18" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="18" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="22" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="26" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="18" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="30" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="33" t="s">
+      <c r="C33" s="24"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A34" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="37" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:9" s="30" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="38"/>
+      <c r="I35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
